--- a/My 3D RPG/Assets/StaticData/Excel/QuestSpeech.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/QuestSpeech.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,22 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portraitPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atlasType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portraitIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,39 +34,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CharType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtlasType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너 뉴비구나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥터에 가서 츄츄 5마리만 잡아와줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥터에 가서 츄츄 5마리를 잡자! 엠버년 지가 잡으면 될것을!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portrait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC</t>
+    <t>사냥터에 가서 츄츄 5마리를 잡아라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이도우에게 말을 걸자!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,119 +385,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54.75" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/My 3D RPG/Assets/StaticData/Excel/QuestSpeech.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/QuestSpeech.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -34,11 +34,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사냥터에 가서 츄츄 5마리를 잡아라!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>베이도우에게 말을 걸자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥터에 가서 츄츄 2마리씩 잡아라!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +388,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -417,7 +417,7 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -425,7 +425,7 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
